--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col18a1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col18a1-Itgb1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>10.92859066666667</v>
+        <v>0.5586043333333334</v>
       </c>
       <c r="H2">
-        <v>32.785772</v>
+        <v>1.675813</v>
       </c>
       <c r="I2">
-        <v>0.2185558471001832</v>
+        <v>0.01643366487114074</v>
       </c>
       <c r="J2">
-        <v>0.2185558471001832</v>
+        <v>0.01643366487114074</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N2">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q2">
-        <v>1229.612805686208</v>
+        <v>34.09810581142745</v>
       </c>
       <c r="R2">
-        <v>11066.51525117587</v>
+        <v>306.8829523028471</v>
       </c>
       <c r="S2">
-        <v>0.07158388022870095</v>
+        <v>0.003358405873723409</v>
       </c>
       <c r="T2">
-        <v>0.07158388022870095</v>
+        <v>0.003358405873723408</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>10.92859066666667</v>
+        <v>0.5586043333333334</v>
       </c>
       <c r="H3">
-        <v>32.785772</v>
+        <v>1.675813</v>
       </c>
       <c r="I3">
-        <v>0.2185558471001832</v>
+        <v>0.01643366487114074</v>
       </c>
       <c r="J3">
-        <v>0.2185558471001832</v>
+        <v>0.01643366487114074</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P3">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q3">
-        <v>1161.867280859251</v>
+        <v>59.38772140361934</v>
       </c>
       <c r="R3">
-        <v>10456.80552773326</v>
+        <v>534.489492632574</v>
       </c>
       <c r="S3">
-        <v>0.06763996592265478</v>
+        <v>0.005849241992853533</v>
       </c>
       <c r="T3">
-        <v>0.06763996592265478</v>
+        <v>0.005849241992853533</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>10.92859066666667</v>
+        <v>0.5586043333333334</v>
       </c>
       <c r="H4">
-        <v>32.785772</v>
+        <v>1.675813</v>
       </c>
       <c r="I4">
-        <v>0.2185558471001832</v>
+        <v>0.01643366487114074</v>
       </c>
       <c r="J4">
-        <v>0.2185558471001832</v>
+        <v>0.01643366487114074</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N4">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q4">
-        <v>1362.704060687084</v>
+        <v>73.36620458670711</v>
       </c>
       <c r="R4">
-        <v>12264.33654618375</v>
+        <v>660.295841280364</v>
       </c>
       <c r="S4">
-        <v>0.07933200094882743</v>
+        <v>0.007226017004563798</v>
       </c>
       <c r="T4">
-        <v>0.07933200094882745</v>
+        <v>0.007226017004563797</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,13 +723,13 @@
         <v>21.275312</v>
       </c>
       <c r="H5">
-        <v>63.82593600000001</v>
+        <v>63.825936</v>
       </c>
       <c r="I5">
-        <v>0.4254751576214853</v>
+        <v>0.6259016025719319</v>
       </c>
       <c r="J5">
-        <v>0.4254751576214852</v>
+        <v>0.6259016025719319</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N5">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q5">
-        <v>2393.757518978304</v>
+        <v>1298.679219722843</v>
       </c>
       <c r="R5">
-        <v>21543.81767080474</v>
+        <v>11688.11297750559</v>
       </c>
       <c r="S5">
-        <v>0.1393564305305586</v>
+        <v>0.1279100940011173</v>
       </c>
       <c r="T5">
-        <v>0.1393564305305585</v>
+        <v>0.1279100940011173</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>21.275312</v>
       </c>
       <c r="H6">
-        <v>63.82593600000001</v>
+        <v>63.825936</v>
       </c>
       <c r="I6">
-        <v>0.4254751576214853</v>
+        <v>0.6259016025719319</v>
       </c>
       <c r="J6">
-        <v>0.4254751576214852</v>
+        <v>0.6259016025719319</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P6">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q6">
         <v>2261.873434263392</v>
@@ -818,10 +818,10 @@
         <v>20356.86090837053</v>
       </c>
       <c r="S6">
-        <v>0.1316785871634057</v>
+        <v>0.2227774489661925</v>
       </c>
       <c r="T6">
-        <v>0.1316785871634057</v>
+        <v>0.2227774489661926</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>21.275312</v>
       </c>
       <c r="H7">
-        <v>63.82593600000001</v>
+        <v>63.825936</v>
       </c>
       <c r="I7">
-        <v>0.4254751576214853</v>
+        <v>0.6259016025719319</v>
       </c>
       <c r="J7">
-        <v>0.4254751576214852</v>
+        <v>0.6259016025719319</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N7">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q7">
-        <v>2652.853871013131</v>
+        <v>2794.265636150378</v>
       </c>
       <c r="R7">
-        <v>23875.68483911818</v>
+        <v>25148.39072535341</v>
       </c>
       <c r="S7">
-        <v>0.154440139927521</v>
+        <v>0.2752140596046221</v>
       </c>
       <c r="T7">
-        <v>0.154440139927521</v>
+        <v>0.2752140596046221</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.79975</v>
+        <v>12.157548</v>
       </c>
       <c r="H8">
-        <v>53.39924999999999</v>
+        <v>36.472644</v>
       </c>
       <c r="I8">
-        <v>0.3559689952783316</v>
+        <v>0.3576647325569273</v>
       </c>
       <c r="J8">
-        <v>0.3559689952783315</v>
+        <v>0.3576647325569273</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N8">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q8">
-        <v>2002.710249252</v>
+        <v>742.1162589946041</v>
       </c>
       <c r="R8">
-        <v>18024.392243268</v>
+        <v>6679.046330951438</v>
       </c>
       <c r="S8">
-        <v>0.1165909869775968</v>
+        <v>0.07309284618261276</v>
       </c>
       <c r="T8">
-        <v>0.1165909869775968</v>
+        <v>0.07309284618261276</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.79975</v>
+        <v>12.157548</v>
       </c>
       <c r="H9">
-        <v>53.39924999999999</v>
+        <v>36.472644</v>
       </c>
       <c r="I9">
-        <v>0.3559689952783316</v>
+        <v>0.3576647325569273</v>
       </c>
       <c r="J9">
-        <v>0.3559689952783315</v>
+        <v>0.3576647325569273</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>318.943398</v>
       </c>
       <c r="O9">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P9">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q9">
-        <v>1892.3709161835</v>
+        <v>1292.523223489368</v>
       </c>
       <c r="R9">
-        <v>17031.3382456515</v>
+        <v>11632.70901140431</v>
       </c>
       <c r="S9">
-        <v>0.1101674058581059</v>
+        <v>0.1273037748693902</v>
       </c>
       <c r="T9">
-        <v>0.1101674058581059</v>
+        <v>0.1273037748693902</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.79975</v>
+        <v>12.157548</v>
       </c>
       <c r="H10">
-        <v>53.39924999999999</v>
+        <v>36.472644</v>
       </c>
       <c r="I10">
-        <v>0.3559689952783316</v>
+        <v>0.3576647325569273</v>
       </c>
       <c r="J10">
-        <v>0.3559689952783315</v>
+        <v>0.3576647325569273</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N10">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q10">
-        <v>2219.4802920195</v>
+        <v>1596.753015713648</v>
       </c>
       <c r="R10">
-        <v>19975.3226281755</v>
+        <v>14370.77714142283</v>
       </c>
       <c r="S10">
-        <v>0.1292106024426289</v>
+        <v>0.1572681115049243</v>
       </c>
       <c r="T10">
-        <v>0.1292106024426289</v>
+        <v>0.1572681115049243</v>
       </c>
     </row>
   </sheetData>
